--- a/webpjpg_processing_timing.xlsx
+++ b/webpjpg_processing_timing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\webpjpg_processing_timing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103E7200-F82F-4DE2-91FF-B0DC31EC9C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F75D7BA-AD08-4987-94AD-DDAE91EE252A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,9 +150,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -164,6 +161,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -871,7 +871,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>convertion from Format_6</a:t>
+              <a:t>test 3</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1000,7 +1000,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'automatic formatting'!$C$123:$C$142</c:f>
+              <c:f>'automatic formatting'!$K$63:$K$82</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1070,7 +1070,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B671-4913-BFAB-9DB347557F92}"/>
+              <c16:uniqueId val="{00000000-DB6D-41CB-9319-BF62F8C69ABB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1094,7 +1094,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'automatic formatting'!$F$123:$F$142</c:f>
+              <c:f>'automatic formatting'!$N$63:$N$82</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1164,7 +1164,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B671-4913-BFAB-9DB347557F92}"/>
+              <c16:uniqueId val="{00000001-DB6D-41CB-9319-BF62F8C69ABB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1515,7 +1515,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>test 3</a:t>
+              <a:t>test 4</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1644,7 +1644,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'automatic formatting'!$K$63:$K$82</c:f>
+              <c:f>'automatic formatting'!$K$83:$K$102</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1714,7 +1714,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DB6D-41CB-9319-BF62F8C69ABB}"/>
+              <c16:uniqueId val="{00000000-DBC4-403A-9266-79AF14BE2029}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1738,7 +1738,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'automatic formatting'!$N$63:$N$82</c:f>
+              <c:f>'automatic formatting'!$N$83:$N$102</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1808,7 +1808,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DB6D-41CB-9319-BF62F8C69ABB}"/>
+              <c16:uniqueId val="{00000001-DBC4-403A-9266-79AF14BE2029}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2159,7 +2159,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>test 4</a:t>
+              <a:t>test 5</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2358,7 +2358,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DBC4-403A-9266-79AF14BE2029}"/>
+              <c16:uniqueId val="{00000000-98E0-4377-A2B5-CAA1C915C921}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2382,7 +2382,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'automatic formatting'!$N$83:$N$102</c:f>
+              <c:f>'automatic formatting'!$N$63:$N$82</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2452,7 +2452,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DBC4-403A-9266-79AF14BE2029}"/>
+              <c16:uniqueId val="{00000001-98E0-4377-A2B5-CAA1C915C921}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2803,7 +2803,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>test 5</a:t>
+              <a:t>test 6</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2932,7 +2932,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'automatic formatting'!$K$83:$K$102</c:f>
+              <c:f>'automatic formatting'!$K$103:$K$122</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -3002,7 +3002,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-98E0-4377-A2B5-CAA1C915C921}"/>
+              <c16:uniqueId val="{00000000-05F2-4749-9998-B17B8A088978}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3026,7 +3026,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'automatic formatting'!$N$63:$N$82</c:f>
+              <c:f>'automatic formatting'!$N$103:$N$122</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -3096,7 +3096,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-98E0-4377-A2B5-CAA1C915C921}"/>
+              <c16:uniqueId val="{00000001-05F2-4749-9998-B17B8A088978}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3447,7 +3447,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>test 6</a:t>
+              <a:t>test 7</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3576,7 +3576,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'automatic formatting'!$K$103:$K$122</c:f>
+              <c:f>'automatic formatting'!$K$143:$K$162</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -3646,7 +3646,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-05F2-4749-9998-B17B8A088978}"/>
+              <c16:uniqueId val="{00000000-9F79-47F0-8858-00A8B9DE579B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3670,7 +3670,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'automatic formatting'!$N$103:$N$122</c:f>
+              <c:f>'automatic formatting'!$N$143:$N$162</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -3740,7 +3740,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-05F2-4749-9998-B17B8A088978}"/>
+              <c16:uniqueId val="{00000001-9F79-47F0-8858-00A8B9DE579B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4091,7 +4091,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>test 7</a:t>
+              <a:t>convertion from Format_7</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4220,7 +4220,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'automatic formatting'!$K$143:$K$162</c:f>
+              <c:f>'automatic formatting'!$C$143:$C$162</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -4290,7 +4290,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9F79-47F0-8858-00A8B9DE579B}"/>
+              <c16:uniqueId val="{00000000-1DF6-4F78-B521-7064261C8580}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4314,7 +4314,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'automatic formatting'!$N$143:$N$162</c:f>
+              <c:f>'automatic formatting'!$F$143:$F$162</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -4384,7 +4384,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9F79-47F0-8858-00A8B9DE579B}"/>
+              <c16:uniqueId val="{00000001-1DF6-4F78-B521-7064261C8580}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4735,7 +4735,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>convertion from Format_7</a:t>
+              <a:t>convertion from webp</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4864,69 +4864,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'automatic formatting'!$C$143:$C$162</c:f>
+              <c:f>'automatic formatting'!$C$43:$C$62</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>322.74759999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>274.57897000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>273.14029099999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>279.98859099999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>284.15644900000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>276.34381400000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>279.51826899999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>278.797956</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>281.30891500000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>283.27184999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>292.85576500000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>283.18191400000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>284.37082099999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>285.03646500000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>285.96191700000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>287.89859300000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>293.91555</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>385.09830599999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>402.60455899999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>454.62189799999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4934,7 +4934,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1DF6-4F78-B521-7064261C8580}"/>
+              <c16:uniqueId val="{00000000-1086-4B5D-AC4E-23E5DAAFADEC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4958,69 +4958,69 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'automatic formatting'!$F$143:$F$162</c:f>
+              <c:f>'automatic formatting'!$F$43:$F$62</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6036.996674</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5897.6413860000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6034.8849799999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5992.6534179999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6048.4307140000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>6075.1882569999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6100.3749820000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>6118.5292499999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>6061.7668030000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>6160.9684269999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>6197.7351719999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>6204.499941</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>6157.8088340000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>6202.6729779999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>6588.0684730000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>6571.2723269999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>6633.0285309999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>7051.9460650000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>7475.3998270000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>49402.811933999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5028,7 +5028,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1DF6-4F78-B521-7064261C8580}"/>
+              <c16:uniqueId val="{00000001-1086-4B5D-AC4E-23E5DAAFADEC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6023,7 +6023,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>convertion from webp</a:t>
+              <a:t>convertion from tiff</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6152,69 +6152,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'automatic formatting'!$C$43:$C$62</c:f>
+              <c:f>'automatic formatting'!$C$63:$C$82</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>322.74759999999998</c:v>
+                  <c:v>368.42179599999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>274.57897000000003</c:v>
+                  <c:v>187.89406500000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>273.14029099999999</c:v>
+                  <c:v>181.52542600000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>279.98859099999999</c:v>
+                  <c:v>182.512021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>284.15644900000001</c:v>
+                  <c:v>190.952057</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>276.34381400000001</c:v>
+                  <c:v>193.33386200000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>279.51826899999998</c:v>
+                  <c:v>184.57554400000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>278.797956</c:v>
+                  <c:v>185.748569</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>281.30891500000001</c:v>
+                  <c:v>189.409368</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>283.27184999999997</c:v>
+                  <c:v>189.68383499999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>292.85576500000002</c:v>
+                  <c:v>194.726868</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>283.18191400000001</c:v>
+                  <c:v>190.77122499999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>284.37082099999998</c:v>
+                  <c:v>199.571427</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>285.03646500000002</c:v>
+                  <c:v>203.45418900000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>285.96191700000003</c:v>
+                  <c:v>205.45366999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>287.89859300000001</c:v>
+                  <c:v>207.81643299999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>293.91555</c:v>
+                  <c:v>212.13590199999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>385.09830599999998</c:v>
+                  <c:v>315.85992700000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>402.60455899999999</c:v>
+                  <c:v>293.92188199999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>454.62189799999999</c:v>
+                  <c:v>360.28571899999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6222,7 +6222,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FE95-495B-AF1D-DDE0D39DA8F4}"/>
+              <c16:uniqueId val="{00000000-B099-48CB-B29F-047DB0730845}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6246,69 +6246,69 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'automatic formatting'!$F$43:$F$62</c:f>
+              <c:f>'automatic formatting'!$F$63:$F$82</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>6036.996674</c:v>
+                  <c:v>5098.7356129999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5897.6413860000002</c:v>
+                  <c:v>4950.4038149999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6034.8849799999998</c:v>
+                  <c:v>5102.4120759999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5992.6534179999999</c:v>
+                  <c:v>5096.6357010000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6048.4307140000001</c:v>
+                  <c:v>5129.1544590000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6075.1882569999998</c:v>
+                  <c:v>5086.0472060000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6100.3749820000003</c:v>
+                  <c:v>4975.5842579999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6118.5292499999996</c:v>
+                  <c:v>4970.4602029999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6061.7668030000004</c:v>
+                  <c:v>5010.8769659999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6160.9684269999998</c:v>
+                  <c:v>5015.3226549999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6197.7351719999997</c:v>
+                  <c:v>5066.6849169999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6204.499941</c:v>
+                  <c:v>5148.8703699999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6157.8088340000004</c:v>
+                  <c:v>5067.3755639999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6202.6729779999996</c:v>
+                  <c:v>5078.524735</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6588.0684730000003</c:v>
+                  <c:v>4944.1478129999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6571.2723269999997</c:v>
+                  <c:v>4985.4129430000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6633.0285309999999</c:v>
+                  <c:v>5151.4260359999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7051.9460650000001</c:v>
+                  <c:v>5323.793361</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7475.3998270000002</c:v>
+                  <c:v>5582.8743199999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>49402.811933999998</c:v>
+                  <c:v>37190.600958000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6316,7 +6316,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FE95-495B-AF1D-DDE0D39DA8F4}"/>
+              <c16:uniqueId val="{00000001-B099-48CB-B29F-047DB0730845}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6667,7 +6667,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>convertion from tiff</a:t>
+              <a:t>test 0 - resize</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6796,69 +6796,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'automatic formatting'!$C$63:$C$82</c:f>
+              <c:f>'automatic formatting'!$K$3:$K$22</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>368.42179599999997</c:v>
+                  <c:v>659.73475699999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>187.89406500000001</c:v>
+                  <c:v>664.52114200000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>181.52542600000001</c:v>
+                  <c:v>657.08770500000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>182.512021</c:v>
+                  <c:v>644.85240999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>190.952057</c:v>
+                  <c:v>648.77000299999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>193.33386200000001</c:v>
+                  <c:v>649.44957099999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>184.57554400000001</c:v>
+                  <c:v>643.03204500000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>185.748569</c:v>
+                  <c:v>652.709611</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>189.409368</c:v>
+                  <c:v>665.20163200000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>189.68383499999999</c:v>
+                  <c:v>703.96577000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>194.726868</c:v>
+                  <c:v>673.95341199999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>190.77122499999999</c:v>
+                  <c:v>677.55125699999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>199.571427</c:v>
+                  <c:v>686.53010900000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>203.45418900000001</c:v>
+                  <c:v>688.51499799999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>205.45366999999999</c:v>
+                  <c:v>666.54553299999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>207.81643299999999</c:v>
+                  <c:v>688.07424300000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>212.13590199999999</c:v>
+                  <c:v>684.36305600000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>315.85992700000003</c:v>
+                  <c:v>690.30108299999995</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>293.92188199999998</c:v>
+                  <c:v>683.332672</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>360.28571899999997</c:v>
+                  <c:v>749.21521800000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6866,7 +6866,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B099-48CB-B29F-047DB0730845}"/>
+              <c16:uniqueId val="{00000000-130E-49A5-B847-1E57C31782C7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6890,69 +6890,69 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'automatic formatting'!$F$63:$F$82</c:f>
+              <c:f>'automatic formatting'!$N$3:$N$22</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5098.7356129999998</c:v>
+                  <c:v>1951.9698760000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4950.4038149999997</c:v>
+                  <c:v>1839.946396</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5102.4120759999996</c:v>
+                  <c:v>1825.1863539999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5096.6357010000002</c:v>
+                  <c:v>2034.4347150000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5129.1544590000003</c:v>
+                  <c:v>1547.6443859999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5086.0472060000002</c:v>
+                  <c:v>1522.5508620000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4975.5842579999999</c:v>
+                  <c:v>1486.9901540000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4970.4602029999996</c:v>
+                  <c:v>1595.855135</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5010.8769659999998</c:v>
+                  <c:v>1756.1712399999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5015.3226549999999</c:v>
+                  <c:v>1750.7194710000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5066.6849169999996</c:v>
+                  <c:v>1693.8732239999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5148.8703699999996</c:v>
+                  <c:v>1687.557548</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5067.3755639999999</c:v>
+                  <c:v>1661.796951</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5078.524735</c:v>
+                  <c:v>1740.345769</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4944.1478129999996</c:v>
+                  <c:v>1737.2588599999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4985.4129430000003</c:v>
+                  <c:v>1654.39411</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5151.4260359999998</c:v>
+                  <c:v>1586.373198</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5323.793361</c:v>
+                  <c:v>1806.488349</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5582.8743199999999</c:v>
+                  <c:v>1713.7256259999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>37190.600958000003</c:v>
+                  <c:v>2030.3747699999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6960,7 +6960,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B099-48CB-B29F-047DB0730845}"/>
+              <c16:uniqueId val="{00000001-130E-49A5-B847-1E57C31782C7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7311,650 +7311,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>test 0 - resize</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>jpg</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'automatic formatting'!$B$3:$B$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'automatic formatting'!$K$3:$K$22</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>659.73475699999995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>664.52114200000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>657.08770500000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>644.85240999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>648.77000299999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>649.44957099999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>643.03204500000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>652.709611</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>665.20163200000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>703.96577000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>673.95341199999996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>677.55125699999996</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>686.53010900000004</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>688.51499799999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>666.54553299999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>688.07424300000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>684.36305600000003</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>690.30108299999995</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>683.332672</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>749.21521800000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-130E-49A5-B847-1E57C31782C7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>webp</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'automatic formatting'!$N$3:$N$22</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1951.9698760000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1839.946396</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1825.1863539999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2034.4347150000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1547.6443859999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1522.5508620000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1486.9901540000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1595.855135</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1756.1712399999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1750.7194710000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1693.8732239999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1687.557548</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1661.796951</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1740.345769</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1737.2588599999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1654.39411</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1586.373198</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1806.488349</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1713.7256259999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2030.3747699999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-130E-49A5-B847-1E57C31782C7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="2015106432"/>
-        <c:axId val="2015104352"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2015106432"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>quality</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2015104352"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2015104352"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>time [ms]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2015106432"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
               <a:t>test 1 - rotate</a:t>
             </a:r>
           </a:p>
@@ -8569,7 +7925,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -8903,6 +8259,650 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F1E3-4D1B-9B67-EEE0566B1526}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2015106432"/>
+        <c:axId val="2015104352"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2015106432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>quality</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2015104352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2015104352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>time [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2015106432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>convertion from Format_4</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>jpg</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'automatic formatting'!$B$3:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'automatic formatting'!$C$83:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-58DB-47AF-95E3-E764EABC0B70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>webp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'automatic formatting'!$F$83:$F$102</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-58DB-47AF-95E3-E764EABC0B70}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9253,7 +9253,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>convertion from Format_4</a:t>
+              <a:t>convertion from Format_5</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -9382,7 +9382,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'automatic formatting'!$C$83:$C$102</c:f>
+              <c:f>'automatic formatting'!$C$103:$C$122</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -9452,7 +9452,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-58DB-47AF-95E3-E764EABC0B70}"/>
+              <c16:uniqueId val="{00000000-C131-4EA5-B4C8-003CC4AE4CA5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9476,7 +9476,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'automatic formatting'!$F$83:$F$102</c:f>
+              <c:f>'automatic formatting'!$F$103:$F$122</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -9546,7 +9546,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-58DB-47AF-95E3-E764EABC0B70}"/>
+              <c16:uniqueId val="{00000001-C131-4EA5-B4C8-003CC4AE4CA5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9897,7 +9897,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>convertion from Format_5</a:t>
+              <a:t>convertion from Format_6</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -10026,7 +10026,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'automatic formatting'!$C$103:$C$122</c:f>
+              <c:f>'automatic formatting'!$C$123:$C$142</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -10096,7 +10096,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C131-4EA5-B4C8-003CC4AE4CA5}"/>
+              <c16:uniqueId val="{00000000-B671-4913-BFAB-9DB347557F92}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10120,7 +10120,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'automatic formatting'!$F$103:$F$122</c:f>
+              <c:f>'automatic formatting'!$F$123:$F$142</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -10190,7 +10190,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C131-4EA5-B4C8-003CC4AE4CA5}"/>
+              <c16:uniqueId val="{00000001-B671-4913-BFAB-9DB347557F92}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -19482,44 +19482,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>33617</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>645617</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Diagramm 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00824C8E-97F8-4E64-B615-65BC02FB957C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
@@ -19550,7 +19512,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -19588,7 +19550,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -19626,7 +19588,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -19664,7 +19626,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -19702,7 +19664,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -19740,7 +19702,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -19778,7 +19740,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -19816,7 +19778,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -19854,7 +19816,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -19892,7 +19854,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -19930,7 +19892,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -19968,7 +19930,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -19993,6 +19955,44 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D06BCEC3-E9C3-4FE0-AF2F-CCB8AE186EC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>612000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="23" name="Diagramm 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99CC7CB1-D0D9-4E08-B80E-F31AD1115618}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23434,30 +23434,30 @@
     <col min="15" max="15" width="16" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:15" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="9" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9" t="s">
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="10"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="9"/>
     </row>
     <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -30756,7 +30756,7 @@
         <v/>
       </c>
       <c r="O127" s="3" t="e">
-        <f t="shared" ref="O127:O162" si="5">N127/K127</f>
+        <f t="shared" ref="O127:O148" si="5">N127/K127</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -31889,7 +31889,7 @@
         <v/>
       </c>
       <c r="G147" s="3" t="e">
-        <f t="shared" ref="G147:G162" si="6">F147/C147</f>
+        <f t="shared" ref="G147:G151" si="6">F147/C147</f>
         <v>#VALUE!</v>
       </c>
       <c r="I147" t="str">
@@ -32816,7 +32816,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9287E8E-1536-49D0-BD2D-9B479E972C25}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -32825,12 +32827,12 @@
     <col min="16" max="16" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="14"/>
-      <c r="Q1" s="13" t="s">
+      <c r="O1" s="13"/>
+      <c r="Q1" s="12" t="s">
         <v>4</v>
       </c>
     </row>

--- a/webpjpg_processing_timing.xlsx
+++ b/webpjpg_processing_timing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\webpjpg_processing_timing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F75D7BA-AD08-4987-94AD-DDAE91EE252A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C406ECE7-DB4D-4BFC-B58E-92E3365BF54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Benchmarking_time_convertion_jpg</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>average over multiple images after different quality compressions</t>
-  </si>
-  <si>
-    <t>timing of image manipulation jpg vs webp</t>
   </si>
   <si>
     <t>timing of image file format convertion from … to jpg vs webp</t>
@@ -80,6 +77,15 @@
   <si>
     <t>time: webp / jpg</t>
   </si>
+  <si>
+    <t>libvips</t>
+  </si>
+  <si>
+    <t>timing of image manipulation jpg vs webp from HD 1920px image</t>
+  </si>
+  <si>
+    <t>ImageMagick</t>
+  </si>
 </sst>
 </file>
 
@@ -88,7 +94,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +105,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -140,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -164,6 +178,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -171,12 +186,12 @@
   <dxfs count="2">
     <dxf>
       <font>
-        <color rgb="FF00B050"/>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
       </font>
     </dxf>
   </dxfs>
@@ -871,7 +886,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>test 3</a:t>
+              <a:t>test 3 - rotate</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1515,7 +1530,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>test 4</a:t>
+              <a:t>test 4 - force resize</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6667,7 +6682,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>test 0 - resize</a:t>
+              <a:t>test 0 - resize 500px</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7311,8 +7326,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>test 1 - rotate</a:t>
+              <a:t>test 1 - resize</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> 860px</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -7960,11 +7980,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>test 2 - force</a:t>
+              <a:t>test 2 - </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> resize</a:t>
+              <a:t>resize 1200px</a:t>
             </a:r>
             <a:endParaRPr lang="de-DE"/>
           </a:p>
@@ -8609,7 +8629,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>convertion from Format_4</a:t>
+              <a:t>convertion from heic</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -19408,13 +19428,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>612000</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19446,13 +19466,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>612000</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19484,13 +19504,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>612000</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19522,13 +19542,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>612000</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19560,13 +19580,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>612000</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19598,13 +19618,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>612000</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19636,13 +19656,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>612000</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19674,13 +19694,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>612000</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19712,13 +19732,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>612000</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19750,13 +19770,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>612000</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19788,13 +19808,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>612000</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19826,13 +19846,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>612000</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19864,13 +19884,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>612000</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19902,13 +19922,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>612000</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19940,13 +19960,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>612000</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19978,13 +19998,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>612000</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -22066,7 +22086,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FFBB0C6-B4BC-4521-B7F2-41308C00EA2A}">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -23413,7 +23435,7 @@
   <dimension ref="A1:O162"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23441,7 +23463,7 @@
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
@@ -23453,7 +23475,7 @@
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
       <c r="L1" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
@@ -23461,47 +23483,47 @@
     </row>
     <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="O2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -32800,10 +32822,10 @@
     <mergeCell ref="L1:N1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G1048576 O3:O1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32814,10 +32836,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9287E8E-1536-49D0-BD2D-9B479E972C25}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32827,25 +32849,34 @@
     <col min="16" max="16" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="13"/>
-      <c r="Q1" s="12" t="s">
+    <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="O2" s="13"/>
+      <c r="Q2" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q3" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/webpjpg_processing_timing.xlsx
+++ b/webpjpg_processing_timing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\webpjpg_processing_timing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C406ECE7-DB4D-4BFC-B58E-92E3365BF54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF53433-7A78-4A5A-9F2C-16D55BE8800B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,10 +175,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2947,7 +2947,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'automatic formatting'!$K$103:$K$122</c:f>
+              <c:f>'automatic formatting'!$K$123:$K$142</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -3041,7 +3041,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'automatic formatting'!$N$103:$N$122</c:f>
+              <c:f>'automatic formatting'!$N$123:$N$142</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
@@ -23434,7 +23434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCCC442-6CBF-4D00-B5B0-7E1FB9C35A7D}">
   <dimension ref="A1:O162"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
@@ -23457,28 +23457,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
       <c r="G1" s="9"/>
       <c r="H1" s="10"/>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14" t="s">
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
       <c r="O1" s="9"/>
     </row>
     <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -32838,8 +32838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9287E8E-1536-49D0-BD2D-9B479E972C25}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="V66" sqref="V66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32850,10 +32850,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="14" t="s">
         <v>12</v>
       </c>
     </row>
